--- a/angabe1/data/2017/Messdaten_2017_Regression.xlsx
+++ b/angabe1/data/2017/Messdaten_2017_Regression.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Runde</t>
   </si>
@@ -27,22 +27,16 @@
     <t>ID_Proband</t>
   </si>
   <si>
-    <t>Bemerkung</t>
-  </si>
-  <si>
-    <t>getrödelt</t>
+    <t>ZeitEbene</t>
   </si>
   <si>
     <t>ZeitTreppeAb</t>
   </si>
   <si>
-    <t>Größe in cm</t>
+    <t>ZeitTreppeAuf</t>
   </si>
   <si>
-    <t>ZeitEbene</t>
-  </si>
-  <si>
-    <t>ZeitTreppeAuf</t>
+    <t>Größe in cm</t>
   </si>
 </sst>
 </file>
@@ -100,23 +94,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -441,1473 +438,1400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.84</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10.38</v>
+      </c>
+      <c r="F2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17.37</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.88</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.22</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10.68</v>
+      </c>
+      <c r="F4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15.81</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.66</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="F5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15.97</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.78</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="F6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C7" s="3">
+        <v>18.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11.34</v>
+      </c>
+      <c r="F7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5">
-        <v>6.84</v>
-      </c>
-      <c r="F2" s="5">
-        <v>10.38</v>
-      </c>
-      <c r="G2">
+      <c r="C8" s="3">
+        <v>22.85</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12.15</v>
+      </c>
+      <c r="F8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>17.47</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.81</v>
+      </c>
+      <c r="E9" s="4">
+        <v>11.83</v>
+      </c>
+      <c r="F9">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>17.37</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5">
-        <v>7.37</v>
-      </c>
-      <c r="F3" s="5">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12.22</v>
+      </c>
+      <c r="F10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="C11" s="3">
+        <v>22.08</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11.25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9.23</v>
+      </c>
+      <c r="F11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18.25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.57</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="F12">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>17.88</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5">
-        <v>6.22</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10.68</v>
-      </c>
-      <c r="G4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15.81</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5">
-        <v>9.66</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10.41</v>
-      </c>
-      <c r="G5">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>15.97</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5">
-        <v>6.78</v>
-      </c>
-      <c r="F6" s="5">
-        <v>11.1</v>
-      </c>
-      <c r="G6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>18.84</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="F7" s="5">
-        <v>11.34</v>
-      </c>
-      <c r="G7">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <v>22.85</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>8.81</v>
-      </c>
-      <c r="F8" s="5">
-        <v>12.15</v>
-      </c>
-      <c r="G8">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>17.47</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5">
-        <v>9.81</v>
-      </c>
-      <c r="F9" s="5">
-        <v>11.83</v>
-      </c>
-      <c r="G9">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5">
-        <v>9.23</v>
-      </c>
-      <c r="F10" s="5">
-        <v>12.22</v>
-      </c>
-      <c r="G10">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>22.08</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5">
-        <v>11.25</v>
-      </c>
-      <c r="F11" s="5">
-        <v>9.23</v>
-      </c>
-      <c r="G11">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4">
-        <v>18.25</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5">
-        <v>8.57</v>
-      </c>
-      <c r="F12" s="5">
-        <v>7.18</v>
-      </c>
-      <c r="G12">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>17.5</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5">
+      <c r="D13" s="4">
         <v>9.9700000000000006</v>
       </c>
-      <c r="F13" s="5">
+      <c r="E13" s="4">
         <v>10.72</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
         <f>B13+1</f>
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>21.25</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5">
+      <c r="D14" s="4">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F14" s="5">
+      <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
         <f t="shared" ref="B15:B22" si="0">B14+1</f>
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>16.32</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5">
+      <c r="D15" s="4">
         <v>6.78</v>
       </c>
-      <c r="F15" s="5">
+      <c r="E15" s="4">
         <v>8.7799999999999994</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>18.239999999999998</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5">
+      <c r="D16" s="4">
         <v>7.28</v>
       </c>
-      <c r="F16" s="5">
+      <c r="E16" s="4">
         <v>11.94</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>19.71</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5">
+      <c r="D17" s="4">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F17" s="5">
+      <c r="E17" s="4">
         <v>13.38</v>
       </c>
-      <c r="G17">
+      <c r="F17">
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>19.82</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5">
+      <c r="D18" s="4">
         <v>7.87</v>
       </c>
-      <c r="F18" s="5">
+      <c r="E18" s="4">
         <v>11.25</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>16.25</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5">
+      <c r="D19" s="4">
         <v>8.6</v>
       </c>
-      <c r="F19" s="5">
+      <c r="E19" s="4">
         <v>6.75</v>
       </c>
-      <c r="G19">
+      <c r="F19">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>19.809999999999999</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
         <v>8</v>
       </c>
-      <c r="F20" s="5">
+      <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="F20">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>18.96</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5">
+      <c r="D21" s="4">
         <v>10.14</v>
       </c>
-      <c r="F21" s="5">
+      <c r="E21" s="4">
         <v>13.35</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>17</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5">
+      <c r="D22" s="4">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F22" s="5">
+      <c r="E22" s="4">
         <v>11.97</v>
       </c>
-      <c r="G22">
+      <c r="F22">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
         <f>B22+1</f>
         <v>22</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>19</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5">
+      <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="F23" s="5">
+      <c r="E23" s="4">
         <v>11.59</v>
       </c>
-      <c r="G23">
+      <c r="F23">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
         <v>17.53</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5">
+      <c r="D24" s="4">
         <v>6.87</v>
       </c>
-      <c r="F24" s="5">
+      <c r="E24" s="4">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="F24">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
         <v>16.34</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5">
+      <c r="D25" s="4">
         <v>7.37</v>
       </c>
-      <c r="F25" s="5">
+      <c r="E25" s="4">
         <v>9.8800000000000008</v>
       </c>
-      <c r="G25">
+      <c r="F25">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4">
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5">
+      <c r="D26" s="4">
         <v>7.03</v>
       </c>
-      <c r="F26" s="5">
+      <c r="E26" s="4">
         <v>10.72</v>
       </c>
-      <c r="G26">
+      <c r="F26">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>15.62</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5">
+      <c r="D27" s="4">
         <v>8.65</v>
       </c>
-      <c r="F27" s="5">
+      <c r="E27" s="4">
         <v>10.44</v>
       </c>
-      <c r="G27">
+      <c r="F27">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3">
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>16.149999999999999</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5">
+      <c r="D28" s="4">
         <v>7.22</v>
       </c>
-      <c r="F28" s="5">
+      <c r="E28" s="4">
         <v>10.5</v>
       </c>
-      <c r="G28">
+      <c r="F28">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
         <v>6</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>19</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5">
+      <c r="D29" s="4">
         <v>6.9</v>
       </c>
-      <c r="F29" s="5">
+      <c r="E29" s="4">
         <v>11.32</v>
       </c>
-      <c r="G29">
+      <c r="F29">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3">
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
         <v>7</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>22.97</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="4">
         <v>7.63</v>
       </c>
-      <c r="F30" s="5">
+      <c r="E30" s="4">
         <v>12.38</v>
       </c>
-      <c r="G30">
+      <c r="F30">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3">
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
         <v>8</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>18.29</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5">
+      <c r="D31" s="4">
         <v>10.42</v>
       </c>
-      <c r="F31" s="5">
+      <c r="E31" s="4">
         <v>12.23</v>
       </c>
-      <c r="G31">
+      <c r="F31">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>21.13</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5">
+      <c r="D32" s="4">
         <v>9.1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="E32" s="4">
         <v>11.62</v>
       </c>
-      <c r="G32">
+      <c r="F32">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
         <v>10</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>22.45</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5">
+      <c r="D33" s="4">
         <v>11.65</v>
       </c>
-      <c r="F33" s="5">
+      <c r="E33" s="4">
         <v>9.68</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="3">
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
         <v>11</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>18.66</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5">
+      <c r="D34" s="4">
         <v>8.81</v>
       </c>
-      <c r="F34" s="5">
+      <c r="E34" s="4">
         <v>7.66</v>
       </c>
-      <c r="G34">
+      <c r="F34">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3">
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
         <v>12</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>18.34</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5">
+      <c r="D35" s="4">
         <v>9.94</v>
       </c>
-      <c r="F35" s="5">
+      <c r="E35" s="4">
         <v>12.16</v>
       </c>
-      <c r="G35">
+      <c r="F35">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3">
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
         <f>B35+1</f>
         <v>13</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>20.32</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5">
+      <c r="D36" s="4">
         <v>6.25</v>
       </c>
-      <c r="F36" s="5">
+      <c r="E36" s="4">
         <v>12.19</v>
       </c>
-      <c r="G36">
+      <c r="F36">
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="3">
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
         <f t="shared" ref="B37:B45" si="1">B36+1</f>
         <v>14</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>16.66</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5">
+      <c r="D37" s="4">
         <v>6.72</v>
       </c>
-      <c r="F37" s="5">
+      <c r="E37" s="4">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G37">
+      <c r="F37">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3">
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>18.59</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="5">
+      <c r="D38" s="4">
         <v>7.38</v>
       </c>
-      <c r="F38" s="5">
+      <c r="E38" s="4">
         <v>12.12</v>
       </c>
-      <c r="G38">
+      <c r="F38">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3">
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>20.03</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="5">
+      <c r="D39" s="4">
         <v>8.56</v>
       </c>
-      <c r="F39" s="5">
+      <c r="E39" s="4">
         <v>13.28</v>
       </c>
-      <c r="G39">
+      <c r="F39">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3">
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>19.559999999999999</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="5">
+      <c r="D40" s="4">
         <v>7.59</v>
       </c>
-      <c r="F40" s="5">
+      <c r="E40" s="4">
         <v>11.15</v>
       </c>
-      <c r="G40">
+      <c r="F40">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2</v>
-      </c>
-      <c r="B41" s="3">
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>16.690000000000001</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="5">
+      <c r="D41" s="4">
         <v>7.75</v>
       </c>
-      <c r="F41" s="5">
+      <c r="E41" s="4">
         <v>7.28</v>
       </c>
-      <c r="G41">
+      <c r="F41">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>2</v>
-      </c>
-      <c r="B42" s="3">
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>18.91</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="5">
+      <c r="D42" s="4">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F42" s="5">
+      <c r="E42" s="4">
         <v>11.19</v>
       </c>
-      <c r="G42">
+      <c r="F42">
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3">
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>19.59</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="5">
+      <c r="D43" s="4">
         <v>11.71</v>
       </c>
-      <c r="F43" s="5">
+      <c r="E43" s="4">
         <v>14.08</v>
       </c>
-      <c r="G43">
+      <c r="F43">
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>2</v>
-      </c>
-      <c r="B44" s="3">
+    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>16.97</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="5">
+      <c r="D44" s="4">
         <v>8.75</v>
       </c>
-      <c r="F44" s="5">
+      <c r="E44" s="4">
         <v>11.5</v>
       </c>
-      <c r="G44">
+      <c r="F44">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="3">
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>18.72</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="5">
+      <c r="D45" s="4">
         <v>10.16</v>
       </c>
-      <c r="F45" s="5">
+      <c r="E45" s="4">
         <v>12.03</v>
       </c>
-      <c r="G45">
+      <c r="F45">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4">
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
         <v>17</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="5">
+      <c r="D46" s="4">
         <v>7.03</v>
       </c>
-      <c r="F46" s="5">
+      <c r="E46" s="4">
         <v>10.9</v>
       </c>
-      <c r="G46">
+      <c r="F46">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3">
-        <v>2</v>
-      </c>
-      <c r="C47" s="4">
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3">
         <v>16.72</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="5">
+      <c r="D47" s="4">
         <v>7.44</v>
       </c>
-      <c r="F47" s="5">
+      <c r="E47" s="4">
         <v>10.220000000000001</v>
       </c>
-      <c r="G47">
+      <c r="F47">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4">
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
         <v>17.09</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="5">
+      <c r="D48" s="4">
         <v>6.78</v>
       </c>
-      <c r="F48" s="5">
+      <c r="E48" s="4">
         <v>10.78</v>
       </c>
-      <c r="G48">
+      <c r="F48">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>3</v>
-      </c>
-      <c r="B49" s="3">
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>16.62</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="5">
+      <c r="D49" s="4">
         <v>9.3699999999999992</v>
       </c>
-      <c r="F49" s="5">
+      <c r="E49" s="4">
         <v>10.4</v>
       </c>
-      <c r="G49">
+      <c r="F49">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>3</v>
-      </c>
-      <c r="B50" s="3">
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>16.940000000000001</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="5">
+      <c r="D50" s="4">
         <v>7.09</v>
       </c>
-      <c r="F50" s="5">
+      <c r="E50" s="4">
         <v>10.6</v>
       </c>
-      <c r="G50">
+      <c r="F50">
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3">
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2">
         <v>6</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>18.47</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="5">
+      <c r="D51" s="4">
         <v>7.31</v>
       </c>
-      <c r="F51" s="5">
+      <c r="E51" s="4">
         <v>11.25</v>
       </c>
-      <c r="G51">
+      <c r="F51">
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>3</v>
-      </c>
-      <c r="B52" s="3">
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
         <v>7</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>23.82</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="4">
         <v>7.93</v>
       </c>
-      <c r="F52" s="5">
+      <c r="E52" s="4">
         <v>13.4</v>
       </c>
-      <c r="G52">
+      <c r="F52">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>3</v>
-      </c>
-      <c r="B53" s="3">
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
         <v>8</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>18.95</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="5">
+      <c r="D53" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="F53" s="5">
+      <c r="E53" s="4">
         <v>11.55</v>
       </c>
-      <c r="G53">
+      <c r="F53">
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3">
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2">
         <v>9</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>19.649999999999999</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="5">
+      <c r="D54" s="4">
         <v>9.52</v>
       </c>
-      <c r="F54" s="5">
+      <c r="E54" s="4">
         <v>11.64</v>
       </c>
-      <c r="G54">
+      <c r="F54">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>3</v>
-      </c>
-      <c r="B55" s="3">
+    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
         <v>10</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>22.5</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="5">
+      <c r="D55" s="4">
         <v>11.9</v>
       </c>
-      <c r="F55" s="5">
+      <c r="E55" s="4">
         <v>10.07</v>
       </c>
-      <c r="G55">
+      <c r="F55">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>3</v>
-      </c>
-      <c r="B56" s="3">
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2">
         <v>11</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>19.850000000000001</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="5">
+      <c r="D56" s="4">
         <v>8.2200000000000006</v>
       </c>
-      <c r="F56" s="5">
+      <c r="E56" s="4">
         <v>7.94</v>
       </c>
-      <c r="G56">
+      <c r="F56">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>3</v>
-      </c>
-      <c r="B57" s="3">
+    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2">
         <v>12</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>18.13</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="5">
+      <c r="D57" s="4">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F57" s="5">
+      <c r="E57" s="4">
         <v>12.94</v>
       </c>
-      <c r="G57">
+      <c r="F57">
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>3</v>
-      </c>
-      <c r="B58" s="3">
+    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2">
         <f>B57+1</f>
         <v>13</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>19.309999999999999</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="5">
+      <c r="D58" s="4">
         <v>7.75</v>
       </c>
-      <c r="F58" s="5">
+      <c r="E58" s="4">
         <v>11.28</v>
       </c>
-      <c r="G58">
+      <c r="F58">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>3</v>
-      </c>
-      <c r="B59" s="3">
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
         <f t="shared" ref="B59:B67" si="2">B58+1</f>
         <v>14</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>17.41</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="5">
+      <c r="D59" s="4">
         <v>6.78</v>
       </c>
-      <c r="F59" s="5">
+      <c r="E59" s="4">
         <v>8.66</v>
       </c>
-      <c r="G59">
+      <c r="F59">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>3</v>
-      </c>
-      <c r="B60" s="3">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>19.54</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="5">
+      <c r="D60" s="4">
         <v>7.16</v>
       </c>
-      <c r="F60" s="5">
+      <c r="E60" s="4">
         <v>11.44</v>
       </c>
-      <c r="G60">
+      <c r="F60">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>20.18</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="5">
+      <c r="D61" s="4">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F61" s="5">
+      <c r="E61" s="4">
         <v>13.18</v>
       </c>
-      <c r="G61">
+      <c r="F61">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>3</v>
-      </c>
-      <c r="B62" s="3">
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>18.71</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="5">
+      <c r="D62" s="4">
         <v>7.82</v>
       </c>
-      <c r="F62" s="5">
+      <c r="E62" s="4">
         <v>10.56</v>
       </c>
-      <c r="G62">
+      <c r="F62">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>3</v>
-      </c>
-      <c r="B63" s="3">
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>16.940000000000001</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="5">
+      <c r="D63" s="4">
         <v>8.34</v>
       </c>
-      <c r="F63" s="5">
+      <c r="E63" s="4">
         <v>7.19</v>
       </c>
-      <c r="G63">
+      <c r="F63">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>3</v>
-      </c>
-      <c r="B64" s="3">
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>18.25</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="5">
+      <c r="D64" s="4">
         <v>8.19</v>
       </c>
-      <c r="F64" s="5">
+      <c r="E64" s="4">
         <v>11.22</v>
       </c>
-      <c r="G64">
+      <c r="F64">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>3</v>
-      </c>
-      <c r="B65" s="3">
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>20</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="5">
+      <c r="D65" s="4">
         <v>11.25</v>
       </c>
-      <c r="F65" s="5">
+      <c r="E65" s="4">
         <v>13.92</v>
       </c>
-      <c r="G65">
+      <c r="F65">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3">
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>16.37</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="5">
+      <c r="D66" s="4">
         <v>7.41</v>
       </c>
-      <c r="F66" s="5">
+      <c r="E66" s="4">
         <v>11.84</v>
       </c>
-      <c r="G66">
+      <c r="F66">
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>3</v>
-      </c>
-      <c r="B67" s="3">
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>20.09</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="5">
+      <c r="D67" s="4">
         <v>10.41</v>
       </c>
-      <c r="F67" s="5">
+      <c r="E67" s="4">
         <v>11.57</v>
       </c>
-      <c r="G67">
+      <c r="F67">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E67">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A2:C67">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ROW()=EVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F67">
+  <conditionalFormatting sqref="D2:D67">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ROW()=EVEN(ROW())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ROW()=EVEN(ROW())</formula>
     </cfRule>
